--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,64 +467,64 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
+        <v>45656</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.039999961853027</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.039999961853027</v>
+      </c>
+      <c r="E2" t="n">
+        <v>1.039999961853027</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr"/>
       <c r="D3" t="inlineStr"/>
-      <c r="E3" t="n">
-        <v>1.149999976158142</v>
-      </c>
+      <c r="E3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr"/>
-      <c r="D4" t="n">
-        <v>1.149999976158142</v>
-      </c>
+      <c r="D4" t="inlineStr"/>
       <c r="E4" t="n">
         <v>1.149999976158142</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
-        <v>1.149999976158142</v>
-      </c>
+      <c r="C5" t="inlineStr"/>
       <c r="D5" t="n">
         <v>1.149999976158142</v>
       </c>
       <c r="E5" t="n">
-        <v>1.100000023841858</v>
+        <v>1.149999976158142</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
-      </c>
-      <c r="B6" t="n">
-        <v>1.149999976158142</v>
-      </c>
+        <v>45530</v>
+      </c>
+      <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
         <v>1.149999976158142</v>
       </c>
       <c r="D6" t="n">
-        <v>1.100000023841858</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="E6" t="n">
         <v>1.100000023841858</v>
@@ -532,152 +532,152 @@
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
         <v>1.149999976158142</v>
       </c>
       <c r="C7" t="n">
-        <v>1.100000023841858</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="D7" t="n">
         <v>1.100000023841858</v>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>1.100000023841858</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.100000023841858</v>
+        <v>1.149999976158142</v>
       </c>
       <c r="C8" t="n">
         <v>1.100000023841858</v>
       </c>
       <c r="D8" t="n">
-        <v>1</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="E8" t="n">
-        <v>1.009999990463257</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
         <v>1.100000023841858</v>
       </c>
       <c r="C9" t="n">
-        <v>1</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="D9" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" t="n">
         <v>1.009999990463257</v>
-      </c>
-      <c r="E9" t="n">
-        <v>1.049999952316284</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1</v>
+        <v>1.100000023841858</v>
       </c>
       <c r="C10" t="n">
+        <v>1</v>
+      </c>
+      <c r="D10" t="n">
         <v>1.009999990463257</v>
       </c>
-      <c r="D10" t="n">
+      <c r="E10" t="n">
         <v>1.049999952316284</v>
-      </c>
-      <c r="E10" t="n">
-        <v>1.039999961853027</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
+        <v>1</v>
+      </c>
+      <c r="C11" t="n">
         <v>1.009999990463257</v>
       </c>
-      <c r="C11" t="n">
+      <c r="D11" t="n">
         <v>1.049999952316284</v>
       </c>
-      <c r="D11" t="n">
+      <c r="E11" t="n">
         <v>1.039999961853027</v>
-      </c>
-      <c r="E11" t="n">
-        <v>1.159999966621399</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
+        <v>1.009999990463257</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.049999952316284</v>
       </c>
-      <c r="C12" t="n">
+      <c r="D12" t="n">
         <v>1.039999961853027</v>
       </c>
-      <c r="D12" t="n">
+      <c r="E12" t="n">
         <v>1.159999966621399</v>
-      </c>
-      <c r="E12" t="n">
-        <v>1.129999995231628</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="C13" t="n">
         <v>1.039999961853027</v>
       </c>
-      <c r="C13" t="n">
+      <c r="D13" t="n">
         <v>1.159999966621399</v>
       </c>
-      <c r="D13" t="n">
+      <c r="E13" t="n">
         <v>1.129999995231628</v>
-      </c>
-      <c r="E13" t="n">
-        <v>1.049999952316284</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
+        <v>1.039999961853027</v>
+      </c>
+      <c r="C14" t="n">
         <v>1.159999966621399</v>
       </c>
-      <c r="C14" t="n">
+      <c r="D14" t="n">
         <v>1.129999995231628</v>
       </c>
-      <c r="D14" t="n">
+      <c r="E14" t="n">
         <v>1.049999952316284</v>
-      </c>
-      <c r="E14" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
+        <v>1.159999966621399</v>
+      </c>
+      <c r="C15" t="n">
         <v>1.129999995231628</v>
       </c>
-      <c r="C15" t="n">
+      <c r="D15" t="n">
         <v>1.049999952316284</v>
-      </c>
-      <c r="D15" t="n">
-        <v>1</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
@@ -685,50 +685,50 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
+        <v>1.129999995231628</v>
+      </c>
+      <c r="C16" t="n">
         <v>1.049999952316284</v>
       </c>
-      <c r="C16" t="n">
-        <v>1</v>
-      </c>
       <c r="D16" t="n">
         <v>1</v>
       </c>
       <c r="E16" t="n">
-        <v>0.9900000095367432</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1</v>
+        <v>1.049999952316284</v>
       </c>
       <c r="C17" t="n">
         <v>1</v>
       </c>
       <c r="D17" t="n">
+        <v>1</v>
+      </c>
+      <c r="E17" t="n">
         <v>0.9900000095367432</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.9800000190734863</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" t="n">
+        <v>1</v>
+      </c>
+      <c r="D18" t="n">
         <v>0.9900000095367432</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.9800000190734863</v>
       </c>
       <c r="E18" t="n">
         <v>0.9800000190734863</v>
@@ -736,13 +736,13 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
+        <v>1</v>
+      </c>
+      <c r="C19" t="n">
         <v>0.9900000095367432</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.9800000190734863</v>
       </c>
       <c r="D19" t="n">
         <v>0.9800000190734863</v>
@@ -753,10 +753,10 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>0.9800000190734863</v>
+        <v>0.9900000095367432</v>
       </c>
       <c r="C20" t="n">
         <v>0.9800000190734863</v>
@@ -765,12 +765,12 @@
         <v>0.9800000190734863</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9700000286102295</v>
+        <v>0.9800000190734863</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
         <v>0.9800000190734863</v>
@@ -779,67 +779,118 @@
         <v>0.9800000190734863</v>
       </c>
       <c r="D21" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="E21" t="n">
         <v>0.9700000286102295</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.9900000095367432</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
         <v>0.9800000190734863</v>
       </c>
       <c r="C22" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="D22" t="n">
         <v>0.9700000286102295</v>
       </c>
-      <c r="D22" t="n">
+      <c r="E22" t="n">
         <v>0.9900000095367432</v>
-      </c>
-      <c r="E22" t="n">
-        <v>1</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
+        <v>0.9800000190734863</v>
+      </c>
+      <c r="C23" t="n">
         <v>0.9700000286102295</v>
       </c>
-      <c r="C23" t="n">
+      <c r="D23" t="n">
         <v>0.9900000095367432</v>
       </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="inlineStr"/>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
+        <v>0.9700000286102295</v>
+      </c>
+      <c r="C24" t="n">
         <v>0.9900000095367432</v>
       </c>
-      <c r="C24" t="n">
-        <v>1</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
-      <c r="E24" t="inlineStr"/>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>0.9900000095367432</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1</v>
+      </c>
+      <c r="E25" t="n">
+        <v>1.049999952316284</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
-        <v>1</v>
-      </c>
-      <c r="C25" t="inlineStr"/>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr"/>
+      <c r="B26" t="n">
+        <v>1</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="E26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
+      <c r="E27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.049999952316284</v>
+      </c>
+      <c r="C28" t="inlineStr"/>
+      <c r="D28" t="inlineStr"/>
+      <c r="E28" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -852,7 +903,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -884,338 +935,380 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45509</v>
+        <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.059659838676453</v>
+        <v>1.052906155586243</v>
       </c>
       <c r="C2" t="n">
-        <v>1.067020773887634</v>
+        <v>1.163222551345825</v>
       </c>
       <c r="D2" t="n">
-        <v>1.09067976474762</v>
+        <v>1.110785365104675</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45516</v>
+        <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.008939862251282</v>
+        <v>1.110653638839722</v>
       </c>
       <c r="C3" t="n">
-        <v>1.069537281990051</v>
+        <v>1.09796667098999</v>
       </c>
       <c r="D3" t="n">
-        <v>1.086280584335327</v>
+        <v>1.101510763168335</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45523</v>
+        <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.008939862251282</v>
+        <v>1.04447340965271</v>
       </c>
       <c r="C4" t="n">
-        <v>1.069537281990051</v>
+        <v>1.116647481918335</v>
       </c>
       <c r="D4" t="n">
-        <v>1.086280584335327</v>
+        <v>1.102372646331787</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45530</v>
+        <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.016571640968323</v>
+        <v>1.038696527481079</v>
       </c>
       <c r="C5" t="n">
-        <v>1.068775296211243</v>
+        <v>1.117001533508301</v>
       </c>
       <c r="D5" t="n">
-        <v>1.079129695892334</v>
+        <v>1.100817084312439</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45537</v>
+        <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.138663053512573</v>
+        <v>1.038848876953125</v>
       </c>
       <c r="C6" t="n">
-        <v>1.12479841709137</v>
+        <v>1.109153509140015</v>
       </c>
       <c r="D6" t="n">
-        <v>1.105554342269897</v>
+        <v>1.095596075057983</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45544</v>
+        <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.141677856445312</v>
+        <v>1.149524092674255</v>
       </c>
       <c r="C7" t="n">
-        <v>1.162067651748657</v>
+        <v>1.136416912078857</v>
       </c>
       <c r="D7" t="n">
-        <v>1.102908611297607</v>
+        <v>1.103865027427673</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45551</v>
+        <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.093833684921265</v>
+        <v>1.144305825233459</v>
       </c>
       <c r="C8" t="n">
-        <v>1.118325352668762</v>
+        <v>1.17818295955658</v>
       </c>
       <c r="D8" t="n">
-        <v>1.115126848220825</v>
+        <v>1.113101124763489</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45558</v>
+        <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.104522347450256</v>
+        <v>1.087298035621643</v>
       </c>
       <c r="C9" t="n">
-        <v>1.077710390090942</v>
+        <v>1.08710503578186</v>
       </c>
       <c r="D9" t="n">
-        <v>1.102809429168701</v>
+        <v>1.087286591529846</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45565</v>
+        <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.008226752281189</v>
+        <v>1.091634392738342</v>
       </c>
       <c r="C10" t="n">
-        <v>1.045140027999878</v>
+        <v>1.068762063980103</v>
       </c>
       <c r="D10" t="n">
-        <v>1.068149566650391</v>
+        <v>1.075545310974121</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45572</v>
+        <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>1.037606477737427</v>
+        <v>0.9998873472213745</v>
       </c>
       <c r="C11" t="n">
-        <v>1.061865210533142</v>
+        <v>1.071741580963135</v>
       </c>
       <c r="D11" t="n">
-        <v>1.055892586708069</v>
+        <v>1.062804698944092</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45579</v>
+        <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.053609013557434</v>
+        <v>1.037369608879089</v>
       </c>
       <c r="C12" t="n">
-        <v>1.059010982513428</v>
+        <v>1.047492980957031</v>
       </c>
       <c r="D12" t="n">
-        <v>1.055268049240112</v>
+        <v>1.05747401714325</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45586</v>
+        <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.055538892745972</v>
+        <v>1.082672953605652</v>
       </c>
       <c r="C13" t="n">
-        <v>1.033342719078064</v>
+        <v>1.128095149993896</v>
       </c>
       <c r="D13" t="n">
-        <v>1.056327700614929</v>
+        <v>1.117481708526611</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45593</v>
+        <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.123731970787048</v>
+        <v>1.084772944450378</v>
       </c>
       <c r="C14" t="n">
-        <v>1.107053995132446</v>
+        <v>1.122248530387878</v>
       </c>
       <c r="D14" t="n">
-        <v>1.067902684211731</v>
+        <v>1.11387038230896</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45600</v>
+        <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.083070039749146</v>
+        <v>1.186056971549988</v>
       </c>
       <c r="C15" t="n">
-        <v>1.082221865653992</v>
+        <v>1.167250633239746</v>
       </c>
       <c r="D15" t="n">
-        <v>1.072332978248596</v>
+        <v>1.120574474334717</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45607</v>
+        <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.046543598175049</v>
+        <v>1.126034736633301</v>
       </c>
       <c r="C16" t="n">
-        <v>1.058479905128479</v>
+        <v>1.122358202934265</v>
       </c>
       <c r="D16" t="n">
-        <v>1.061471581459045</v>
+        <v>1.118478894233704</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45614</v>
+        <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.041436314582825</v>
+        <v>1.087311506271362</v>
       </c>
       <c r="C17" t="n">
-        <v>1.036411643028259</v>
+        <v>1.118646502494812</v>
       </c>
       <c r="D17" t="n">
-        <v>1.056622505187988</v>
+        <v>1.117199659347534</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45621</v>
+        <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.039170265197754</v>
+        <v>1.074485778808594</v>
       </c>
       <c r="C18" t="n">
-        <v>1.052513957023621</v>
+        <v>1.125813961029053</v>
       </c>
       <c r="D18" t="n">
-        <v>1.059348225593567</v>
+        <v>1.118676424026489</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45628</v>
+        <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.04870867729187</v>
+        <v>1.076757431030273</v>
       </c>
       <c r="C19" t="n">
-        <v>1.054436564445496</v>
+        <v>1.133894324302673</v>
       </c>
       <c r="D19" t="n">
-        <v>1.019741773605347</v>
+        <v>1.120119214057922</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45635</v>
+        <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.046753883361816</v>
+        <v>1.069911003112793</v>
       </c>
       <c r="C20" t="n">
-        <v>1.049698114395142</v>
+        <v>1.147609829902649</v>
       </c>
       <c r="D20" t="n">
-        <v>1.061945080757141</v>
+        <v>1.113988161087036</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45642</v>
+        <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.035187005996704</v>
+        <v>1.064254522323608</v>
       </c>
       <c r="C21" t="n">
-        <v>1.052994728088379</v>
+        <v>1.150080680847168</v>
       </c>
       <c r="D21" t="n">
-        <v>1.060360550880432</v>
+        <v>1.110224723815918</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45649</v>
+        <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.047815561294556</v>
+        <v>1.065584182739258</v>
       </c>
       <c r="C22" t="n">
-        <v>1.045176982879639</v>
+        <v>1.153906941413879</v>
       </c>
       <c r="D22" t="n">
-        <v>1.043036699295044</v>
+        <v>1.106599569320679</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45663</v>
+        <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.040282964706421</v>
+        <v>1.079887747764587</v>
       </c>
       <c r="C23" t="n">
-        <v>1.034840703010559</v>
+        <v>1.158236384391785</v>
       </c>
       <c r="D23" t="n">
-        <v>1.039484024047852</v>
+        <v>1.101232528686523</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45670</v>
+        <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.050482392311096</v>
+        <v>1.05095374584198</v>
       </c>
       <c r="C24" t="n">
-        <v>1.046891689300537</v>
+        <v>1.163222551345825</v>
       </c>
       <c r="D24" t="n">
-        <v>1.059917211532593</v>
+        <v>1.114419937133789</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B25" t="n">
+        <v>1.073929309844971</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.165474891662598</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.112545490264893</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
         <v>45677</v>
       </c>
-      <c r="B25" t="n">
-        <v>1.074329257011414</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.067998647689819</v>
-      </c>
-      <c r="D25" t="n">
-        <v>1.080885648727417</v>
+      <c r="B26" t="n">
+        <v>1.079424858093262</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.160456299781799</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.110787510871887</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B27" t="n">
+        <v>1.065528392791748</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.15122401714325</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.117517590522766</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B28" t="n">
+        <v>1.07485818862915</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.147838473320007</v>
+      </c>
+      <c r="D28" t="n">
+        <v>1.116734623908997</v>
       </c>
     </row>
   </sheetData>

--- a/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
+++ b/tests/5_predictions_PRIX_EXP_POMME_GALA_FRANCE_150_180G_CAT_I_PLATEAU_2RG.xlsx
@@ -451,17 +451,17 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 150/180G CAT.I PLATEAU 2RG_S+1</t>
+          <t>PRIX EXP POMME GALA FRANCE 150/180G CAT.I PLATEAU 2RG_S+1_class</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 150/180G CAT.I PLATEAU 2RG_S+2</t>
+          <t>PRIX EXP POMME GALA FRANCE 150/180G CAT.I PLATEAU 2RG_S+2_class</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>PRIX EXP POMME GALA FRANCE 150/180G CAT.I PLATEAU 2RG_S+3</t>
+          <t>PRIX EXP POMME GALA FRANCE 150/180G CAT.I PLATEAU 2RG_S+3_class</t>
         </is>
       </c>
     </row>
@@ -473,13 +473,13 @@
         <v>0.9800000190734863</v>
       </c>
       <c r="C2" t="n">
-        <v>1.039999961853027</v>
+        <v>4</v>
       </c>
       <c r="D2" t="n">
-        <v>1.039999961853027</v>
+        <v>2</v>
       </c>
       <c r="E2" t="n">
-        <v>1.039999961853027</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3">
@@ -487,19 +487,29 @@
         <v>45509</v>
       </c>
       <c r="B3" t="inlineStr"/>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
-      <c r="E3" t="inlineStr"/>
+      <c r="C3" t="n">
+        <v>2</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
         <v>45516</v>
       </c>
       <c r="B4" t="inlineStr"/>
-      <c r="C4" t="inlineStr"/>
-      <c r="D4" t="inlineStr"/>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2</v>
+      </c>
       <c r="E4" t="n">
-        <v>1.149999976158142</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -507,12 +517,14 @@
         <v>45523</v>
       </c>
       <c r="B5" t="inlineStr"/>
-      <c r="C5" t="inlineStr"/>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
       <c r="D5" t="n">
-        <v>1.149999976158142</v>
+        <v>3</v>
       </c>
       <c r="E5" t="n">
-        <v>1.149999976158142</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -521,13 +533,13 @@
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>1.149999976158142</v>
+        <v>3</v>
       </c>
       <c r="D6" t="n">
-        <v>1.149999976158142</v>
+        <v>2</v>
       </c>
       <c r="E6" t="n">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -538,13 +550,13 @@
         <v>1.149999976158142</v>
       </c>
       <c r="C7" t="n">
-        <v>1.149999976158142</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>1.100000023841858</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -555,13 +567,13 @@
         <v>1.149999976158142</v>
       </c>
       <c r="C8" t="n">
-        <v>1.100000023841858</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.100000023841858</v>
+        <v>2</v>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -572,13 +584,13 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C9" t="n">
-        <v>1.100000023841858</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>1.009999990463257</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10">
@@ -589,13 +601,13 @@
         <v>1.100000023841858</v>
       </c>
       <c r="C10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>1.009999990463257</v>
+        <v>2</v>
       </c>
       <c r="E10" t="n">
-        <v>1.049999952316284</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -606,13 +618,13 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>1.009999990463257</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1.049999952316284</v>
+        <v>4</v>
       </c>
       <c r="E11" t="n">
-        <v>1.039999961853027</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -623,13 +635,13 @@
         <v>1.009999990463257</v>
       </c>
       <c r="C12" t="n">
-        <v>1.049999952316284</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>1.039999961853027</v>
+        <v>2</v>
       </c>
       <c r="E12" t="n">
-        <v>1.159999966621399</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -640,13 +652,13 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C13" t="n">
-        <v>1.039999961853027</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
-        <v>1.159999966621399</v>
+        <v>4</v>
       </c>
       <c r="E13" t="n">
-        <v>1.129999995231628</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -657,13 +669,13 @@
         <v>1.039999961853027</v>
       </c>
       <c r="C14" t="n">
-        <v>1.159999966621399</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
-        <v>1.129999995231628</v>
+        <v>1</v>
       </c>
       <c r="E14" t="n">
-        <v>1.049999952316284</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -674,13 +686,13 @@
         <v>1.159999966621399</v>
       </c>
       <c r="C15" t="n">
-        <v>1.129999995231628</v>
+        <v>1</v>
       </c>
       <c r="D15" t="n">
-        <v>1.049999952316284</v>
+        <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -691,13 +703,13 @@
         <v>1.129999995231628</v>
       </c>
       <c r="C16" t="n">
-        <v>1.049999952316284</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17">
@@ -708,13 +720,13 @@
         <v>1.049999952316284</v>
       </c>
       <c r="C17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9900000095367432</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -725,13 +737,13 @@
         <v>1</v>
       </c>
       <c r="C18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9900000095367432</v>
+        <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>0.9800000190734863</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -742,13 +754,13 @@
         <v>1</v>
       </c>
       <c r="C19" t="n">
-        <v>0.9900000095367432</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9800000190734863</v>
+        <v>1</v>
       </c>
       <c r="E19" t="n">
-        <v>0.9800000190734863</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20">
@@ -759,13 +771,13 @@
         <v>0.9900000095367432</v>
       </c>
       <c r="C20" t="n">
-        <v>0.9800000190734863</v>
+        <v>1</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9800000190734863</v>
+        <v>2</v>
       </c>
       <c r="E20" t="n">
-        <v>0.9800000190734863</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21">
@@ -776,13 +788,13 @@
         <v>0.9800000190734863</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9800000190734863</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9800000190734863</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
-        <v>0.9700000286102295</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -793,13 +805,13 @@
         <v>0.9800000190734863</v>
       </c>
       <c r="C22" t="n">
-        <v>0.9800000190734863</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9700000286102295</v>
+        <v>1</v>
       </c>
       <c r="E22" t="n">
-        <v>0.9900000095367432</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -810,13 +822,13 @@
         <v>0.9800000190734863</v>
       </c>
       <c r="C23" t="n">
-        <v>0.9700000286102295</v>
+        <v>1</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9900000095367432</v>
+        <v>3</v>
       </c>
       <c r="E23" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
@@ -827,13 +839,13 @@
         <v>0.9700000286102295</v>
       </c>
       <c r="C24" t="n">
-        <v>0.9900000095367432</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25">
@@ -844,13 +856,13 @@
         <v>0.9900000095367432</v>
       </c>
       <c r="C25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E25" t="n">
-        <v>1.049999952316284</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -861,12 +873,14 @@
         <v>1</v>
       </c>
       <c r="C26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="E26" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="E26" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -876,10 +890,14 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>1.049999952316284</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
+        <v>4</v>
+      </c>
+      <c r="D27" t="n">
+        <v>2</v>
+      </c>
+      <c r="E27" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -888,9 +906,15 @@
       <c r="B28" t="n">
         <v>1.049999952316284</v>
       </c>
-      <c r="C28" t="inlineStr"/>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr"/>
+      <c r="C28" t="n">
+        <v>2</v>
+      </c>
+      <c r="D28" t="n">
+        <v>2</v>
+      </c>
+      <c r="E28" t="n">
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -938,13 +962,13 @@
         <v>45656</v>
       </c>
       <c r="B2" t="n">
-        <v>1.052906155586243</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>1.163222551345825</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>1.110785365104675</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -952,13 +976,13 @@
         <v>45509</v>
       </c>
       <c r="B3" t="n">
-        <v>1.110653638839722</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>1.09796667098999</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>1.101510763168335</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -966,13 +990,13 @@
         <v>45516</v>
       </c>
       <c r="B4" t="n">
-        <v>1.04447340965271</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>1.116647481918335</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>1.102372646331787</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="5">
@@ -980,13 +1004,13 @@
         <v>45523</v>
       </c>
       <c r="B5" t="n">
-        <v>1.038696527481079</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>1.117001533508301</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>1.100817084312439</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -994,13 +1018,13 @@
         <v>45530</v>
       </c>
       <c r="B6" t="n">
-        <v>1.038848876953125</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>1.109153509140015</v>
+        <v>-2</v>
       </c>
       <c r="D6" t="n">
-        <v>1.095596075057983</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -1008,13 +1032,13 @@
         <v>45537</v>
       </c>
       <c r="B7" t="n">
-        <v>1.149524092674255</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>1.136416912078857</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>1.103865027427673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1022,13 +1046,13 @@
         <v>45544</v>
       </c>
       <c r="B8" t="n">
-        <v>1.144305825233459</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>1.17818295955658</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>1.113101124763489</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="9">
@@ -1036,13 +1060,13 @@
         <v>45551</v>
       </c>
       <c r="B9" t="n">
-        <v>1.087298035621643</v>
+        <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>1.08710503578186</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>1.087286591529846</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1050,13 +1074,13 @@
         <v>45558</v>
       </c>
       <c r="B10" t="n">
-        <v>1.091634392738342</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>1.068762063980103</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
-        <v>1.075545310974121</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1064,13 +1088,13 @@
         <v>45565</v>
       </c>
       <c r="B11" t="n">
-        <v>0.9998873472213745</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>1.071741580963135</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
-        <v>1.062804698944092</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1078,13 +1102,13 @@
         <v>45572</v>
       </c>
       <c r="B12" t="n">
-        <v>1.037369608879089</v>
+        <v>-2</v>
       </c>
       <c r="C12" t="n">
-        <v>1.047492980957031</v>
+        <v>1</v>
       </c>
       <c r="D12" t="n">
-        <v>1.05747401714325</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13">
@@ -1092,13 +1116,13 @@
         <v>45579</v>
       </c>
       <c r="B13" t="n">
-        <v>1.082672953605652</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>1.128095149993896</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>1.117481708526611</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
@@ -1106,13 +1130,13 @@
         <v>45586</v>
       </c>
       <c r="B14" t="n">
-        <v>1.084772944450378</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>1.122248530387878</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>1.11387038230896</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1120,13 +1144,13 @@
         <v>45593</v>
       </c>
       <c r="B15" t="n">
-        <v>1.186056971549988</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>1.167250633239746</v>
+        <v>0</v>
       </c>
       <c r="D15" t="n">
-        <v>1.120574474334717</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1134,13 +1158,13 @@
         <v>45600</v>
       </c>
       <c r="B16" t="n">
-        <v>1.126034736633301</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>1.122358202934265</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>1.118478894233704</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1148,13 +1172,13 @@
         <v>45607</v>
       </c>
       <c r="B17" t="n">
-        <v>1.087311506271362</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.118646502494812</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.117199659347534</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1162,13 +1186,13 @@
         <v>45614</v>
       </c>
       <c r="B18" t="n">
-        <v>1.074485778808594</v>
+        <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>1.125813961029053</v>
+        <v>-2</v>
       </c>
       <c r="D18" t="n">
-        <v>1.118676424026489</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -1176,13 +1200,13 @@
         <v>45621</v>
       </c>
       <c r="B19" t="n">
-        <v>1.076757431030273</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.133894324302673</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.120119214057922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -1190,13 +1214,13 @@
         <v>45628</v>
       </c>
       <c r="B20" t="n">
-        <v>1.069911003112793</v>
+        <v>-2</v>
       </c>
       <c r="C20" t="n">
-        <v>1.147609829902649</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>1.113988161087036</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1204,13 +1228,13 @@
         <v>45635</v>
       </c>
       <c r="B21" t="n">
-        <v>1.064254522323608</v>
+        <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>1.150080680847168</v>
+        <v>0</v>
       </c>
       <c r="D21" t="n">
-        <v>1.110224723815918</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1218,13 +1242,13 @@
         <v>45642</v>
       </c>
       <c r="B22" t="n">
-        <v>1.065584182739258</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.153906941413879</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.106599569320679</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1232,13 +1256,13 @@
         <v>45649</v>
       </c>
       <c r="B23" t="n">
-        <v>1.079887747764587</v>
+        <v>-2</v>
       </c>
       <c r="C23" t="n">
-        <v>1.158236384391785</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
-        <v>1.101232528686523</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -1246,13 +1270,13 @@
         <v>45663</v>
       </c>
       <c r="B24" t="n">
-        <v>1.05095374584198</v>
+        <v>-2</v>
       </c>
       <c r="C24" t="n">
-        <v>1.163222551345825</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
-        <v>1.114419937133789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -1260,13 +1284,13 @@
         <v>45670</v>
       </c>
       <c r="B25" t="n">
-        <v>1.073929309844971</v>
+        <v>-2</v>
       </c>
       <c r="C25" t="n">
-        <v>1.165474891662598</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>1.112545490264893</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -1274,13 +1298,13 @@
         <v>45677</v>
       </c>
       <c r="B26" t="n">
-        <v>1.079424858093262</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>1.160456299781799</v>
+        <v>-2</v>
       </c>
       <c r="D26" t="n">
-        <v>1.110787510871887</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -1288,13 +1312,13 @@
         <v>45684</v>
       </c>
       <c r="B27" t="n">
-        <v>1.065528392791748</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
-        <v>1.15122401714325</v>
+        <v>1</v>
       </c>
       <c r="D27" t="n">
-        <v>1.117517590522766</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -1302,13 +1326,13 @@
         <v>45691</v>
       </c>
       <c r="B28" t="n">
-        <v>1.07485818862915</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>1.147838473320007</v>
+        <v>1</v>
       </c>
       <c r="D28" t="n">
-        <v>1.116734623908997</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
